--- a/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1.xlsx
+++ b/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" activeTab="4"/>
+    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis - Doctor" sheetId="12" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Analysis - Specialty" sheetId="16" r:id="rId3"/>
     <sheet name="KPI - Medical" sheetId="14" r:id="rId4"/>
     <sheet name="Gender and Age" sheetId="13" r:id="rId5"/>
+    <sheet name="Client -  CRUD" sheetId="17" r:id="rId6"/>
+    <sheet name="Screening - CRUD" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -46,18 +48,6 @@
   </si>
   <si>
     <t>Actual Output</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify the records in database matches the result shown on web UI (Part 1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify the records in database matches the result shown on web UI (Part 2) </t>
   </si>
   <si>
     <t xml:space="preserve">Start Date Range : 2016 Oct 1 
@@ -100,212 +90,6 @@
     <t>Criteria : Referral
 Start Date : 2016 Jan 1
 End Date : 2016 Oct 31</t>
-  </si>
-  <si>
-    <t>doctorName   Total Count
-Timothy Lee Kam-Yiu 9
-Andrew Quoc Dutton 7
-Lye Wai Choong 7
-Chee Jing Jye 6
-Philip Eng Cher Tiew 6
-Chan Hsiang Sui 5
-Desmond Wai Chun Tao 5
-Kelvin Thia Teck Joo 5
-Lee Kang Hoe 5
-Phuah Huan Kee 5
-Ann Tan Sian Ann 4
-Dede Selamat Sutedja 4
-Luman Widjaja 4
-Tang Kok Foo 4
-Teoh Tiong Ann 4
-Adrian Saurajen Siew Ming 3
-Chan Kong Hon 3
-Charles Tan Tse Kuang 3
-Chin Chong Min 3
-Eu Kong Weng 3
-Francis Wong Yoke Hae 3
-Jimmy Beng Kian Siew 3
-Kevin Tan Eng Kiat 3
-Leong Hoe Nam 3
-Leong Keng Hong 3</t>
-  </si>
-  <si>
-    <t>Lim Beng Hai 3
-Ngian Kite Seng 3
-Paul Chiam Toon Lim 3
-Roger Tan Choon Hian 3
-Wee Siew Bock 3
-Yung Shing Wai 3
-Ang Peng Tiam 2
-Asok Kurup 2
-Brenda Low Wen Yong 2
-Chew Chuan Tieh 2
-Chew Soo Ping 2
-Chia Yee Tien 2
-doctorSean 2
-Eileen Tan 2
-Elaine Chee Wen Ling 2
-Esther Chuwa Wee Lee 2
-Fong Kee Siew 2
-Gerald Tan Yau Min 2
-Ho Ching Lin 2
-Hsieh Wen Son 2
-Koh Wei Howe 2
-Lam Mun San 2
-Lee Kim Shang 2
-Lee Wei Hong 2
-Leonard Ang Pek Kiang 2
-Li Yung Hua 2</t>
-  </si>
-  <si>
-    <t>Lim Hong Liang 2
-Lim Lee Guan 2
-Lim Yeow Wai 2
-Ng Puay Yong 2
-Ngoi Sing Shang 2
-Philip Koh Siam Soon 2
-Reginald Liew Kay Choon 2
-Tan Eng Choon 2
-Tan Kok Soon 2
-Tham Kok Fun 2
-Wong Yue Shuen 2
-Yang Ching Yu 2
-Yeoh Swee Choo 2
-Agasthian Thirugnanam 1
-Alvin Ng Choong Meng 1
-Brian Lee Pheng Hui 1
-Chan Tiong Beng 1
-Chu Hui Ping 1
-Chua Soo Yong 1
-Chuang Hsuan-Hung 1
-David Choy Kim Seng 1
-David Lau Pang Cheng 1
-Dean Koh Chi Siong 1
-Douglas Ong Kheng Ho 1
-Esther Fu Raw Yueh 1
-Freddy Teo Cheng Peng 1</t>
-  </si>
-  <si>
-    <t>Gwee Kok Ann 1
-Ho Gay Hui 1
-Ho Siew Hong 1
-Hong Ga Sze 1
-James Lee Chong Hwa 1
-James Tan Khiaw Ngiap 1
-Jimmy Gordon Lim Tien Wei 1
-Kanwaljit Soin 1
-Khin Khin Win 1
-Kong Hwai Loong 1
-Lawrence Khoo 1
-Lee Chee Wei 1
-Lee Kim En 1
-Leo Kah Woon 1
-Leong See Odd 1
-Lewis Liew Choon How 1
-Lim Li Ling 1
-Lim Tai Tian 1
-Lim Yeong Phang 1
-Lisa Chin Yue Kim 1
-Lo Ngai Nung 1
-Mathew Cheng 1
-Maurice Choo Hock Heng 1
-Melvin Tan Eng Hock 1
-Michael Lim Chun Leng 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toh Choon Lai 1
-Trevor Holcombe 1
-Vera Oh Boon Ngee 1
-Warren Lee Wei Rhen 1
-Wendy Sinnathamby 1
-Yap Lip Kee 1
-Yeo Chor Tzien 1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mona Tan Poh Choo 1
-Ng Wai Lin 1
-Ong Sze Guan 1
-Ooi Boon Swee 1
-Paul Chia Min Wee 1
-Pauline Cheong Yeem Yoong 1
-Peter Lee Yew Chung 1
-Pillay Premkumar 1
-Sam Peh Oon Hui 1
-Seah Chee Seng 1
-Siow Hua Ming 1
-Stanley Chia 1
-Stanley Liew Choon Fong 1
-Stephen Lee Teck Soong 1
-Stephen Teoh Charn Beng 1
-Steve Yang Tze Yi 1
-Tan Chai Beng 1
-Tan Chyn Hong 1
-Tan Jee Lim 1
-Tan Kian Teo 1
-Tan Ter Chyan 1
-Tan Yew Ghee 1
-Tay Khoon Hean 1
-Teo Wee Siong 1
-Thomas Loh Kwok Seng 1
-Ting Hua Sieng 1
-</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>1e</t>
-  </si>
-  <si>
-    <t>1f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify the records in database matches the result shown on web UI (Part 3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify the records in database matches the result shown on web UI (Part 4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify the records in database matches the result shown on web UI (Part 5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify the records in database matches the result shown on web UI (Part 6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoctorName    Total
-Andrew Quoc Dutton 2
-doctorSean 2
-Adrian Saurajen Siew Ming 1
-Chin Chong Min 1
-Dede Selamat Sutedja 1
-Elaine Chee Wen Ling 1
-Esther Chuwa Wee Lee 1
-Esther Fu Raw Yueh 1
-Leo Kah Woon 1
-Lim Hong Liang 1
-Lim Tai Tian 1
-Luman Widjaja 1
-Ng Puay Yong 1
-Ngian Kite Seng 1
-Ngoi Sing Shang 1
-Paul Chia Min Wee 1
-Phuah Huan Kee 1
-Pillay Premkumar 1
-Wee Siew Bock 1
-</t>
-  </si>
-  <si>
-    <t>DoctorName   Total 
-Phuah Huan Kee 1 
-Ng Puay Yong 1</t>
-  </si>
-  <si>
-    <t>DoctorName   Total
-DoctorSean 2</t>
   </si>
   <si>
     <r>
@@ -375,121 +159,204 @@
 outpatient count = 0</t>
   </si>
   <si>
+    <t>To verify the records in database matches the result shown on web UI (Part 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank     DoctorName    Total
+1 Andrew Quoc Dutton 2
+1 doctorSean 2
+2 Adrian Saurajen Siew Ming 1
+2 Chin Chong Min 1
+2 Dede Selamat Sutedja 1
+2 Elaine Chee Wen Ling 1
+2 Esther Chuwa Wee Lee 1
+2 Esther Fu Raw Yueh 1
+2 Leo Kah Woon 1
+2 Lim Hong Liang 1
+2 Lim Tai Tian 1
+2 Luman Widjaja 1
+2 Ng Puay Yong 1
+2 Ngian Kite Seng 1
+2 Ngoi Sing Shang 1
+2 Paul Chia Min Wee 1
+2 Phuah Huan Kee 1
+2 Pillay Premkumar 1
+2 Wee Siew Bock 1
+</t>
+  </si>
+  <si>
+    <t>Rank   DoctorName   Total
+1   DoctorSean 2</t>
+  </si>
+  <si>
+    <t>Rank   DoctorName   Total 
+1    Phuah Huan Kee 1 
+1    Ng Puay Yong 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank   Speciality    Total
+1 Surgery - Orthopaedics  3
+2 doctorSean  2
+2 D15Medicine - Gastroenterology  2
+2 Surgery - Breast    2
+2 Surgery - Eye   2
+2 Surgery - Neuro   2
+3 Medicine - Cardiology   1
+3 Medicine - Dermatology   1
+3 Medicine - Oncology  1
+3 Paediatrics   1
+3 Surgery - ENT   1
+3 Surgery - General   1
+3 Surgery - Plastic   1
+3 Surgery - Urology   1
+</t>
+  </si>
+  <si>
+    <t>Criteria : Referral
+Start Date : 2016 Oct 5
+End Date : 2016 Oct 5</t>
+  </si>
+  <si>
+    <t>Rank   Speciality    Total
+1 doctorSean  2</t>
+  </si>
+  <si>
+    <t>Criteria : Referral
+Start Date : 2016 Oct 8
+End Date : 2016 Oct 9</t>
+  </si>
+  <si>
+    <t>Rank   Speciality    Total
+1 Paediatrics  1
+1 Surgery - Neuro  1</t>
+  </si>
+  <si>
     <t xml:space="preserve">rank   referral name : count 
-1 referral Sean : 4 
-2 Gleneagles CS : 2
-2 Unilever : 2
-1 AAIS : 1
-1 Andreas 1
-1 Dr. Sherly : 1
-1 Dyah : 1
-1 EMA : 1
-1 Konimex : 1
-1 Mrs Tan : 1
-1 TMC : 1
-1 ULINK : 1
-1 US Emb : 1
+1  referral Sean : 1
 </t>
   </si>
   <si>
+    <t>Criteria : Referral
+Start Date : 2016 Nov 1
+End Date : 2016 Nov 30</t>
+  </si>
+  <si>
     <t xml:space="preserve">rank   referral name : count 
-1 referral Sean : 3
-2 AAIS : 1
+1  ULINK : 1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">doctorTest 1
-Medicine - Anaesthesiology 1
-Medicine - Internal Med 1
-Medicine - Ophthalmology 1
-medicine-neurology 1
-qwe 1
-Radiology 1
-speciality 1
-Surgery - Vascular 1
+    <t xml:space="preserve">Client Name: Client Tester 1
+Date of Birth : 20/04/1982
+Passport Number : F1299823102
+Gender: Male
+Client Type : Individual
+VISA Type: -  
+Nationality: Chinese
+Country of Residence:  China
+Referred by :  -  
+Street, City, State, Code, Country : - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Client Tester 2
+Date of Birth : 21/05/1982
+Passport Number : D232141097623G
+Gender: female
+Client Type : Individual
+VISA Type:  -  
+Nationality: Indonesian
+Country of Residence:  Malaysia
+Referred by :  -  
+Street, City, State, Code, Country : - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : ALL) </t>
+  </si>
+  <si>
+    <t>Age : 9
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: All
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Success Message shown, screening added into the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Male) </t>
+  </si>
+  <si>
+    <t>Age : 20
+Common illness: Cancers
+Recommended screening:  - 
+Demographic affected: Male
+Regularity : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Female) </t>
+  </si>
+  <si>
+    <t>Age : 21
+Common illness:  Cancer
+Recommended screening:  - 
+Demographic affected: Female
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Infant) </t>
+  </si>
+  <si>
+    <t>Age : 1
+Common illness:  Chicken Pox
+Recommended screening:  - 
+Demographic affected: Infant
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Screening </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age : 9
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: All
 </t>
-  </si>
-  <si>
-    <t>speciality    total count
-Surgery - Orthopaedics 26
-Obs &amp; Gynae 25
-Medicine - Cardiology 19
-Surgery - General 16
-Surgery - Eye 13
-Medicine - Oncology 11
-Surgery - ENT 11
-Medicine - Gastroenterology 10
-Surgery - Neuro 10
-Surgery - Urology 10
-Medicine - Respiratory 8
-Paediatrics 8
-Medicine - Endocrinology 7
-Medicine - Neurology 6
-Surgery - Breast 6
-Medicine - Dermatology 5
-Medicine - Infectious Diseases 5
-Medicine - Renal 4
-Medicine - Haematology 3
-Medicine - Rheumatology 3
-Surgery - Hand 3
-Surgery - Plastic 3
-Surgery - Cardio 2
-Dental 1
-doctorSean 1</t>
-  </si>
-  <si>
-    <t>To verify the records in database matches the result shown on web UI (Part 1)</t>
-  </si>
-  <si>
-    <t>To verify the records in database matches the result shown on web UI (Part 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <t>rank   referral name : count 
-1 AAIS : 35
-2 US Emb : 21
-3 Andreas : 12
-4 SMG : 10
-5 Dr. Fenny : 9
-5 IndoMed : 9
-5 La : 9
-6 Dr. Sherly : 8
-7 Mrs Tan : 7
-7 ULINK : 7
-8 Jusman : 6
-9 Unilever : 5
-10 EMA : 4
-10 Maternity : 4
-10 Platinum : 4
-10 referral Sean : 4
-11 Astra : 3
-11 Conoco : 3
-11 Dyah : 3
-11 GAMI : 3
-11 Mostafizur : 3
-11 Veron : 3
-12 Chien Wei : 2
-12 Gleneagles CS : 2
-12 Konimex : 2</t>
-  </si>
-  <si>
-    <t>3b</t>
-  </si>
-  <si>
-    <t>3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Melivon : 2
-13 Betty : 1
-13 BIMC : 1
-13 Dr. Charles Lim : 1
-13 IMC : 1
-13 Jenny / Sativa Tour : 1
-13 TMC : 1
-13 ZZZOthers : 1
-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Regularity : 1 </t>
+    </r>
+  </si>
+  <si>
+    <t>Success Message shown, screening details updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening </t>
+  </si>
+  <si>
+    <t>Redirect back to screening page, screening removed from the table</t>
+  </si>
+  <si>
+    <t>Create Client 
+(Visa Type: indonesian)</t>
+  </si>
+  <si>
+    <t>Create Client 
+(Visa Type: non-indonesian)</t>
+  </si>
+  <si>
+    <t>Success message shown</t>
   </si>
 </sst>
 </file>
@@ -570,16 +437,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -598,6 +462,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="A10" sqref="A8:A10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -890,135 +760,76 @@
     <col min="2" max="2" width="26.046875" customWidth="1"/>
     <col min="3" max="3" width="18.046875" customWidth="1"/>
     <col min="4" max="4" width="31.19921875" customWidth="1"/>
+    <col min="5" max="5" width="31.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:6" ht="340.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="10">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="405.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="10">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="396" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="113.7" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="318.3" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1029,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1038,26 +849,27 @@
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="20.1484375" customWidth="1"/>
-    <col min="4" max="4" width="30.8984375" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="23.94921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1066,53 +878,53 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="228" customHeight="1" x14ac:dyDescent="0.6">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="140.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,59 +933,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="29.84765625" customWidth="1"/>
-    <col min="3" max="3" width="34.046875" customWidth="1"/>
+    <col min="3" max="3" width="19.6484375" customWidth="1"/>
+    <col min="4" max="4" width="34.69921875" customWidth="1"/>
+    <col min="5" max="5" width="23.34765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="405.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:6" ht="296.39999999999998" x14ac:dyDescent="0.6">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="156" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1021,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1198,22 +1033,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1222,13 +1057,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1238,13 +1073,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1256,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1270,57 +1105,453 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="288.3" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="C4" s="7"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="32.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="12.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="156" x14ac:dyDescent="0.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="156" x14ac:dyDescent="0.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.6484375" customWidth="1"/>
+    <col min="3" max="3" width="25.6484375" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="93.6" x14ac:dyDescent="0.6">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.6">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="93.6" x14ac:dyDescent="0.6">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="78" x14ac:dyDescent="0.6">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="93.6" x14ac:dyDescent="0.6">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="93.6" x14ac:dyDescent="0.6">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1.xlsx
+++ b/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sychien.2014\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sychien.2014\Documents\GitHub\Ulink\Test Cases\Iteration 2\Iteration 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis - Doctor" sheetId="12" r:id="rId1"/>
     <sheet name="Analysis - Referral" sheetId="15" r:id="rId2"/>
     <sheet name="Analysis - Specialty" sheetId="16" r:id="rId3"/>
-    <sheet name="KPI - Medical" sheetId="14" r:id="rId4"/>
-    <sheet name="Gender and Age" sheetId="13" r:id="rId5"/>
-    <sheet name="Client -  CRUD" sheetId="17" r:id="rId6"/>
-    <sheet name="Screening - CRUD" sheetId="18" r:id="rId7"/>
+    <sheet name="KPI - VISA" sheetId="19" r:id="rId4"/>
+    <sheet name="KPI - Medical" sheetId="14" r:id="rId5"/>
+    <sheet name="Gender and Age" sheetId="13" r:id="rId6"/>
+    <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId7"/>
+    <sheet name="Screening - CRUD " sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -90,6 +91,266 @@
     <t>Criteria : Referral
 Start Date : 2016 Jan 1
 End Date : 2016 Oct 31</t>
+  </si>
+  <si>
+    <t>To verify the records in database matches the result shown on web UI (Part 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank     DoctorName    Total
+1 Andrew Quoc Dutton 2
+1 doctorSean 2
+2 Adrian Saurajen Siew Ming 1
+2 Chin Chong Min 1
+2 Dede Selamat Sutedja 1
+2 Elaine Chee Wen Ling 1
+2 Esther Chuwa Wee Lee 1
+2 Esther Fu Raw Yueh 1
+2 Leo Kah Woon 1
+2 Lim Hong Liang 1
+2 Lim Tai Tian 1
+2 Luman Widjaja 1
+2 Ng Puay Yong 1
+2 Ngian Kite Seng 1
+2 Ngoi Sing Shang 1
+2 Paul Chia Min Wee 1
+2 Phuah Huan Kee 1
+2 Pillay Premkumar 1
+2 Wee Siew Bock 1
+</t>
+  </si>
+  <si>
+    <t>Rank   DoctorName   Total 
+1    Phuah Huan Kee 1 
+1    Ng Puay Yong 1</t>
+  </si>
+  <si>
+    <t>Rank   DoctorName   Total
+1   DoctorSean 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rank   referral name : count 
+1  referral Sean : 1
+</t>
+  </si>
+  <si>
+    <t>Criteria : Referral
+Start Date : 2016 Oct 5
+End Date : 2016 Oct 5</t>
+  </si>
+  <si>
+    <t>Rank   Speciality    Total
+1 doctorSean  2</t>
+  </si>
+  <si>
+    <t>Criteria : Referral
+Start Date : 2016 Oct 8
+End Date : 2016 Oct 9</t>
+  </si>
+  <si>
+    <t>Rank   Speciality    Total
+1 Paediatrics  1
+1 Surgery - Neuro  1</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank   Speciality    Total
+1 Surgery - Orthopaedics  3
+2 doctorSean  2
+2 Medicine - Gastroenterology  2
+2 Surgery - Breast    2
+2 Surgery - Eye   2
+2 Surgery - Neuro   2
+3 Medicine - Cardiology   1
+3 Medicine - Dermatology   1
+3 Medicine - Oncology  1
+3 Paediatrics   1
+3 Surgery - ENT   1
+3 Surgery - General   1
+3 Surgery - Plastic   1
+3 Surgery - Urology   1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Client Tester 1
+Date of Birth : 20/04/1982
+Passport Number : F1299823102
+Gender: Male
+Client Type : Individual
+VISA Type: -  
+Nationality: Chinese
+Country of Residence:  China
+Referred by :  -  
+Street, City, State, Code, Country : - </t>
+  </si>
+  <si>
+    <t>Criteria : Referral
+Start Date : 2016 Nov 1
+End Date : 2016 Nov 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rank   referral name : count 
+1  ULINK : 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Client Tester 2
+Date of Birth : 21/05/1982
+Passport Number : D232141097623G
+Gender: female
+Client Type : Individual
+VISA Type:  -  
+Nationality: Indonesian
+Country of Residence:  Malaysia
+Referred by :  -  
+Street, City, State, Code, Country : - </t>
+  </si>
+  <si>
+    <t>Age : 9
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: All
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Success Message shown, screening added into the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Screening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening </t>
+  </si>
+  <si>
+    <t>Success Message shown, screening details updated.</t>
+  </si>
+  <si>
+    <t>Redirect back to screening page, screening removed from the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Male) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Female) </t>
+  </si>
+  <si>
+    <t>Age : 21
+Common illness:  Cancer
+Recommended screening:  - 
+Demographic affected: Female
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Infant) </t>
+  </si>
+  <si>
+    <t>Age : 1
+Common illness:  Chicken Pox
+Recommended screening:  - 
+Demographic affected: Infant
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t>Age : 20
+Common illness: Cancers
+Recommended screening:  - 
+Demographic affected: Male
+Regularity : 1</t>
+  </si>
+  <si>
+    <t>Create Client 
+(Visa Type: indonesian)</t>
+  </si>
+  <si>
+    <t>Create Client 
+(Visa Type: non-indonesian)</t>
+  </si>
+  <si>
+    <t>Success Message Shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Record Added" 
+</t>
+  </si>
+  <si>
+    <t>inpatient count = 3
+outpatient count = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Both) </t>
+  </si>
+  <si>
+    <t>Age : 9
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: Male and Female
+Regularity : 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Regularity : </t>
+    </r>
   </si>
   <si>
     <r>
@@ -112,15 +373,15 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 - 9 : 0 
-10 - 19 : 0
-20 - 29 : 1
-30 - 39 : 0
-40 - 49 : 0
-50 - 59 : 0
-60 - 69  : 60 
-70-79  : 0
-80 - 89  : 0
+0-9 : 1
+10 - 20 : 0
+20 - 30 : 0
+30 - 40 : 0
+40 - 50 : 0
+50 - 60 : 0
+60 - 70  : 2
+70 - 80 : 0
+80 - 90  : 0
 </t>
     </r>
     <r>
@@ -143,229 +404,59 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 - 9 : 0 
-10 - 19 : 0
-20 - 29 : 1
-30 - 39 : 0  
-40 - 49 : 0
-50 - 59 : 0
-60 - 69  : 140
-70-79  : 0
-80 - 89  : 0</t>
+0-9 : 0
+10 - 20 : 0
+20 - 30 : 1
+30 - 40 : 1  
+40 - 50 : 0
+50 - 60 : 0
+60 - 70  : 7
+70 - 80: 0
+80 - 90  : 0</t>
     </r>
   </si>
   <si>
-    <t>inpatient count = 0 
-outpatient count = 0</t>
-  </si>
-  <si>
-    <t>To verify the records in database matches the result shown on web UI (Part 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank     DoctorName    Total
-1 Andrew Quoc Dutton 2
-1 doctorSean 2
-2 Adrian Saurajen Siew Ming 1
-2 Chin Chong Min 1
-2 Dede Selamat Sutedja 1
-2 Elaine Chee Wen Ling 1
-2 Esther Chuwa Wee Lee 1
-2 Esther Fu Raw Yueh 1
-2 Leo Kah Woon 1
-2 Lim Hong Liang 1
-2 Lim Tai Tian 1
-2 Luman Widjaja 1
-2 Ng Puay Yong 1
-2 Ngian Kite Seng 1
-2 Ngoi Sing Shang 1
-2 Paul Chia Min Wee 1
-2 Phuah Huan Kee 1
-2 Pillay Premkumar 1
-2 Wee Siew Bock 1
-</t>
-  </si>
-  <si>
-    <t>Rank   DoctorName   Total
-1   DoctorSean 2</t>
-  </si>
-  <si>
-    <t>Rank   DoctorName   Total 
-1    Phuah Huan Kee 1 
-1    Ng Puay Yong 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank   Speciality    Total
-1 Surgery - Orthopaedics  3
-2 doctorSean  2
-2 D15Medicine - Gastroenterology  2
-2 Surgery - Breast    2
-2 Surgery - Eye   2
-2 Surgery - Neuro   2
-3 Medicine - Cardiology   1
-3 Medicine - Dermatology   1
-3 Medicine - Oncology  1
-3 Paediatrics   1
-3 Surgery - ENT   1
-3 Surgery - General   1
-3 Surgery - Plastic   1
-3 Surgery - Urology   1
-</t>
-  </si>
-  <si>
-    <t>Criteria : Referral
-Start Date : 2016 Oct 5
-End Date : 2016 Oct 5</t>
-  </si>
-  <si>
-    <t>Rank   Speciality    Total
-1 doctorSean  2</t>
-  </si>
-  <si>
-    <t>Criteria : Referral
-Start Date : 2016 Oct 8
-End Date : 2016 Oct 9</t>
-  </si>
-  <si>
-    <t>Rank   Speciality    Total
-1 Paediatrics  1
-1 Surgery - Neuro  1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rank   referral name : count 
-1  referral Sean : 1
-</t>
-  </si>
-  <si>
-    <t>Criteria : Referral
-Start Date : 2016 Nov 1
-End Date : 2016 Nov 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rank   referral name : count 
-1  ULINK : 1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Name: Client Tester 1
-Date of Birth : 20/04/1982
-Passport Number : F1299823102
-Gender: Male
-Client Type : Individual
-VISA Type: -  
-Nationality: Chinese
-Country of Residence:  China
-Referred by :  -  
-Street, City, State, Code, Country : - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Name: Client Tester 2
-Date of Birth : 21/05/1982
-Passport Number : D232141097623G
-Gender: female
-Client Type : Individual
-VISA Type:  -  
-Nationality: Indonesian
-Country of Residence:  Malaysia
-Referred by :  -  
-Street, City, State, Code, Country : - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : ALL) </t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Success Message shown, screening added into the table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : Male) </t>
-  </si>
-  <si>
-    <t>Age : 20
-Common illness: Cancers
-Recommended screening:  - 
-Demographic affected: Male
-Regularity : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : Female) </t>
-  </si>
-  <si>
-    <t>Age : 21
-Common illness:  Cancer
-Recommended screening:  - 
-Demographic affected: Female
-Regularity : 1 Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : Infant) </t>
-  </si>
-  <si>
-    <t>Age : 1
-Common illness:  Chicken Pox
-Recommended screening:  - 
-Demographic affected: Infant
-Regularity : 1 Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Screening </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Age : 9
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Regularity : 1 </t>
-    </r>
-  </si>
-  <si>
-    <t>Success Message shown, screening details updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening </t>
-  </si>
-  <si>
-    <t>Redirect back to screening page, screening removed from the table</t>
-  </si>
-  <si>
-    <t>Create Client 
-(Visa Type: indonesian)</t>
-  </si>
-  <si>
-    <t>Create Client 
-(Visa Type: non-indonesian)</t>
-  </si>
-  <si>
-    <t>Success message shown</t>
+    <t>team = visa
+start date = 2016 Oct 1
+end date = 2016 Oct 15</t>
+  </si>
+  <si>
+    <t>team = visa
+start date = 2016 Oct 15
+end date = 2016 Oct 31</t>
+  </si>
+  <si>
+    <t>indonesian count = 0 
+non-indonesian count = 0</t>
+  </si>
+  <si>
+    <t>indonesian count = 0 
+non-indonesian count = 2</t>
+  </si>
+  <si>
+    <t>team = visa
+start date = 2016 Nov 1
+end date = 2017 Dec 31</t>
+  </si>
+  <si>
+    <t>indonesian count = 2 
+non-indonesian count = 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,6 +507,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -445,29 +542,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="F4" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -794,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -810,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -826,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -840,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -884,12 +986,12 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -900,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -935,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="D1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -945,7 +1047,7 @@
     <col min="2" max="2" width="29.84765625" customWidth="1"/>
     <col min="3" max="3" width="19.6484375" customWidth="1"/>
     <col min="4" max="4" width="34.69921875" customWidth="1"/>
-    <col min="5" max="5" width="23.34765625" customWidth="1"/>
+    <col min="5" max="5" width="30.44921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
@@ -968,20 +1070,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="296.39999999999998" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" ht="235.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
@@ -991,11 +1094,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
@@ -1005,11 +1110,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1018,10 +1125,99 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="2" max="2" width="18.34765625" customWidth="1"/>
+    <col min="3" max="3" width="24.84765625" customWidth="1"/>
+    <col min="4" max="4" width="23.296875" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1065,7 +1261,7 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
@@ -1079,20 +1275,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1102,9 +1300,10 @@
     <col min="3" max="3" width="14.3984375" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" customWidth="1"/>
     <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="8" max="8" width="14.94921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="288.3" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="288.3" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1132,15 +1331,15 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+        <v>51</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1148,11 +1347,20 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="H8" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1160,18 +1368,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="5.1484375" customWidth="1"/>
+    <col min="2" max="2" width="13.34765625" customWidth="1"/>
     <col min="3" max="3" width="32.19921875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="6" width="12.59765625" customWidth="1"/>
@@ -1201,33 +1409,41 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>47</v>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="156" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
@@ -1418,24 +1634,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="13.6484375" customWidth="1"/>
-    <col min="3" max="3" width="25.6484375" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.84765625" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
+    <col min="3" max="3" width="25.296875" customWidth="1"/>
+    <col min="4" max="4" width="22.94921875" customWidth="1"/>
+    <col min="5" max="5" width="23.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1454,104 +1670,192 @@
       <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="93.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="12">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="93.6" x14ac:dyDescent="0.6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="93.6" x14ac:dyDescent="0.6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.6">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="93.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="78" x14ac:dyDescent="0.6">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="93.6" x14ac:dyDescent="0.6">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="93.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1.xlsx
+++ b/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis - Doctor" sheetId="12" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Gender and Age" sheetId="13" r:id="rId6"/>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId7"/>
     <sheet name="Screening - CRUD " sheetId="18" r:id="rId8"/>
+    <sheet name="Client - CRUD" sheetId="20" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -72,10 +73,6 @@
     <t>team = medical 
 start date = 2016 Oct 1
 end date = 2016 Oct 15</t>
-  </si>
-  <si>
-    <t>inpatient count = 4 
-outpatient count = 1</t>
   </si>
   <si>
     <t>team = medical 
@@ -275,10 +272,6 @@
   <si>
     <t xml:space="preserve">"Record Added" 
 </t>
-  </si>
-  <si>
-    <t>inpatient count = 3
-outpatient count = 2</t>
   </si>
   <si>
     <t xml:space="preserve">Add Screening (Type : Both) </t>
@@ -426,21 +419,88 @@
 end date = 2016 Oct 31</t>
   </si>
   <si>
-    <t>indonesian count = 0 
-non-indonesian count = 0</t>
-  </si>
-  <si>
-    <t>indonesian count = 0 
-non-indonesian count = 2</t>
-  </si>
-  <si>
     <t>team = visa
 start date = 2016 Nov 1
 end date = 2017 Dec 31</t>
   </si>
   <si>
+    <t xml:space="preserve">Add Client </t>
+  </si>
+  <si>
+    <t>Edit Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Tester1 
+Date of Birth: 01/01/1992
+Gender : Female 
+Passport Number :  G123456F
+Client Type: IndividuaNationality : - 
+Referred by: -  
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Client Name: Tester1 
+Date of Birth: 01/01/1992
+Gender : Female 
+Passport Number :  G123456F
+Client Type: IndividuaNationality : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Indo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Referred by: -  
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Success Message shown, client's nationality edited  added into the table</t>
+  </si>
+  <si>
+    <t>Success Message shown, client added into the table</t>
+  </si>
+  <si>
+    <t>Delete Client</t>
+  </si>
+  <si>
+    <t>Client not shown in table</t>
+  </si>
+  <si>
+    <t>inpatient count = 1 
+outpatient count = 0</t>
+  </si>
+  <si>
+    <t>inpatient count = 0
+outpatient count = 0</t>
+  </si>
+  <si>
+    <t>indonesian count = 8 
+non-indonesian count = 14</t>
+  </si>
+  <si>
+    <t>indonesian count = 1 
+non-indonesian count = 1</t>
+  </si>
+  <si>
     <t>indonesian count = 2 
-non-indonesian count = 2</t>
+non-indonesian count = 4</t>
   </si>
 </sst>
 </file>
@@ -853,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="F4" sqref="E2:F4"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -896,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -912,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -928,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -942,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="F2" sqref="E2:F4"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -983,10 +1043,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -999,10 +1059,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -1015,10 +1075,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1037,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F2" sqref="E2:F4"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1075,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1094,10 +1154,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1110,10 +1170,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1127,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1167,10 +1227,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -1183,10 +1243,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -1199,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -1217,7 +1277,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1259,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
@@ -1272,10 +1332,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1290,7 +1350,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1331,10 +1391,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="15"/>
@@ -1410,19 +1470,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="156" x14ac:dyDescent="0.6">
@@ -1430,19 +1490,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.6">
@@ -1638,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1679,13 +1739,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
@@ -1698,13 +1758,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -1717,13 +1777,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
@@ -1736,13 +1796,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
@@ -1755,13 +1815,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
@@ -1774,13 +1834,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
@@ -1858,4 +1918,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="3" max="3" width="20.546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="156" x14ac:dyDescent="0.6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="171.6" x14ac:dyDescent="0.6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="171.6" x14ac:dyDescent="0.6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>